--- a/ipl/Punjab Kings/KL Rahul (c)†.xlsx
+++ b/ipl/Punjab Kings/KL Rahul (c)†.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -460,9 +460,357 @@
         <v>37th Match (N), Sharjah, September 25, 2021, Indian Premier League</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>KL Rahul (c)†</v>
+      </c>
+      <c r="B3" t="str">
+        <v>49</v>
+      </c>
+      <c r="C3" t="str">
+        <v>33</v>
+      </c>
+      <c r="D3" t="str">
+        <v>4</v>
+      </c>
+      <c r="E3" t="str">
+        <v>2</v>
+      </c>
+      <c r="F3" t="str">
+        <v>148.48</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Royals won by 2 runs</v>
+      </c>
+      <c r="I3" t="str">
+        <v>32nd Match (N), Dubai (DSC), September 21, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>KL Rahul (c)†</v>
+      </c>
+      <c r="B4" t="str">
+        <v>60</v>
+      </c>
+      <c r="C4" t="str">
+        <v>52</v>
+      </c>
+      <c r="D4" t="str">
+        <v>3</v>
+      </c>
+      <c r="E4" t="str">
+        <v>3</v>
+      </c>
+      <c r="F4" t="str">
+        <v>115.38</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Punjab Kings won by 9 wickets (with 14 balls remaining)</v>
+      </c>
+      <c r="I4" t="str">
+        <v>17th Match (N), Chennai, April 23, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>KL Rahul (c)†</v>
+      </c>
+      <c r="B5" t="str">
+        <v>19</v>
+      </c>
+      <c r="C5" t="str">
+        <v>20</v>
+      </c>
+      <c r="D5" t="str">
+        <v>2</v>
+      </c>
+      <c r="E5" t="str">
+        <v>1</v>
+      </c>
+      <c r="F5" t="str">
+        <v>95.00</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="H5" t="str">
+        <v>KKR won by 5 wickets (with 20 balls remaining)</v>
+      </c>
+      <c r="I5" t="str">
+        <v>21st Match (N), Ahmedabad, April 26, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>KL Rahul (c)†</v>
+      </c>
+      <c r="B6" t="str">
+        <v>98</v>
+      </c>
+      <c r="C6" t="str">
+        <v>42</v>
+      </c>
+      <c r="D6" t="str">
+        <v>7</v>
+      </c>
+      <c r="E6" t="str">
+        <v>8</v>
+      </c>
+      <c r="F6" t="str">
+        <v>233.33</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Punjab Kings won by 6 wickets (with 42 balls remaining)</v>
+      </c>
+      <c r="I6" t="str">
+        <v>53rd Match, Dubai (DSC), October 07, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>KL Rahul (c)†</v>
+      </c>
+      <c r="B7" t="str">
+        <v>67</v>
+      </c>
+      <c r="C7" t="str">
+        <v>55</v>
+      </c>
+      <c r="D7" t="str">
+        <v>4</v>
+      </c>
+      <c r="E7" t="str">
+        <v>2</v>
+      </c>
+      <c r="F7" t="str">
+        <v>121.81</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Punjab Kings won by 5 wickets (with 3 balls remaining)</v>
+      </c>
+      <c r="I7" t="str">
+        <v>45th Match (N), Dubai (DSC), October 01, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>KL Rahul (c)†</v>
+      </c>
+      <c r="B8" t="str">
+        <v>21</v>
+      </c>
+      <c r="C8" t="str">
+        <v>22</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2</v>
+      </c>
+      <c r="E8" t="str">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <v>95.45</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Mumbai won by 6 wickets (with 6 balls remaining)</v>
+      </c>
+      <c r="I8" t="str">
+        <v>42nd Match (N), Abu Dhabi, September 28, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>KL Rahul (c)†</v>
+      </c>
+      <c r="B9" t="str">
+        <v>21</v>
+      </c>
+      <c r="C9" t="str">
+        <v>21</v>
+      </c>
+      <c r="D9" t="str">
+        <v>3</v>
+      </c>
+      <c r="E9" t="str">
+        <v>0</v>
+      </c>
+      <c r="F9" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Punjab Kings won by 5 runs</v>
+      </c>
+      <c r="I9" t="str">
+        <v>37th Match (N), Sharjah, September 25, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>KL Rahul (c)†</v>
+      </c>
+      <c r="B10" t="str">
+        <v>4</v>
+      </c>
+      <c r="C10" t="str">
+        <v>6</v>
+      </c>
+      <c r="D10" t="str">
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <v>0</v>
+      </c>
+      <c r="F10" t="str">
+        <v>66.66</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Sunrisers won by 9 wickets (with 8 balls remaining)</v>
+      </c>
+      <c r="I10" t="str">
+        <v>14th Match (D/N), Chennai, April 21, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>KL Rahul (c)†</v>
+      </c>
+      <c r="B11" t="str">
+        <v>39</v>
+      </c>
+      <c r="C11" t="str">
+        <v>35</v>
+      </c>
+      <c r="D11" t="str">
+        <v>1</v>
+      </c>
+      <c r="E11" t="str">
+        <v>2</v>
+      </c>
+      <c r="F11" t="str">
+        <v>111.42</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="H11" t="str">
+        <v>RCB won by 6 runs</v>
+      </c>
+      <c r="I11" t="str">
+        <v>48th Match, Sharjah, October 03, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>KL Rahul (c)†</v>
+      </c>
+      <c r="B12" t="str">
+        <v>5</v>
+      </c>
+      <c r="C12" t="str">
+        <v>7</v>
+      </c>
+      <c r="D12" t="str">
+        <v>1</v>
+      </c>
+      <c r="E12" t="str">
+        <v>0</v>
+      </c>
+      <c r="F12" t="str">
+        <v>71.42</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Super Kings won by 6 wickets (with 26 balls remaining)</v>
+      </c>
+      <c r="I12" t="str">
+        <v>8th Match (N), Wankhede, April 16, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>KL Rahul (c)†</v>
+      </c>
+      <c r="B13" t="str">
+        <v>61</v>
+      </c>
+      <c r="C13" t="str">
+        <v>51</v>
+      </c>
+      <c r="D13" t="str">
+        <v>7</v>
+      </c>
+      <c r="E13" t="str">
+        <v>2</v>
+      </c>
+      <c r="F13" t="str">
+        <v>119.60</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Capitals won by 6 wickets (with 10 balls remaining)</v>
+      </c>
+      <c r="I13" t="str">
+        <v>11th Match (N), Wankhede, April 18, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>KL Rahul (c)†</v>
+      </c>
+      <c r="B14" t="str">
+        <v>91</v>
+      </c>
+      <c r="C14" t="str">
+        <v>50</v>
+      </c>
+      <c r="D14" t="str">
+        <v>7</v>
+      </c>
+      <c r="E14" t="str">
+        <v>5</v>
+      </c>
+      <c r="F14" t="str">
+        <v>182.00</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Punjab Kings won by 4 runs</v>
+      </c>
+      <c r="I14" t="str">
+        <v>4th Match (N), Wankhede, April 12, 2021, Indian Premier League</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I14"/>
   </ignoredErrors>
 </worksheet>
 </file>